--- a/data/pca/factorExposure/factorExposure_2013-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0004597005395680565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001775737377021002</v>
+      </c>
+      <c r="C2">
+        <v>0.03355347709318156</v>
+      </c>
+      <c r="D2">
+        <v>0.005870460016255891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001902162949754129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005980204074042544</v>
+      </c>
+      <c r="C4">
+        <v>0.0847776733774091</v>
+      </c>
+      <c r="D4">
+        <v>0.07830643652412994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-5.70705640862232e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01316582715475965</v>
+      </c>
+      <c r="C6">
+        <v>0.1076165006140209</v>
+      </c>
+      <c r="D6">
+        <v>0.03526869726085268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.003255051900019367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004776580261115676</v>
+      </c>
+      <c r="C7">
+        <v>0.05402492796355068</v>
+      </c>
+      <c r="D7">
+        <v>0.03505166602504838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006039219220815026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005571169600694725</v>
+      </c>
+      <c r="C8">
+        <v>0.03692991660014292</v>
+      </c>
+      <c r="D8">
+        <v>0.03885008378502466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005404134895414835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003988450509590274</v>
+      </c>
+      <c r="C9">
+        <v>0.07012444757382406</v>
+      </c>
+      <c r="D9">
+        <v>0.07142332426045429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003022135052871235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005652053399715229</v>
+      </c>
+      <c r="C10">
+        <v>0.07323398028047318</v>
+      </c>
+      <c r="D10">
+        <v>-0.2135174934928079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003890107002286735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005214187106984331</v>
+      </c>
+      <c r="C11">
+        <v>0.07830014102577969</v>
+      </c>
+      <c r="D11">
+        <v>0.06521199450243542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002409893334693766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004032895273531485</v>
+      </c>
+      <c r="C12">
+        <v>0.06417358985625901</v>
+      </c>
+      <c r="D12">
+        <v>0.04733813472924438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002715456170842328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008596817143753819</v>
+      </c>
+      <c r="C13">
+        <v>0.06968261074461565</v>
+      </c>
+      <c r="D13">
+        <v>0.06388981279475277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002545223378924854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001495832233658668</v>
+      </c>
+      <c r="C14">
+        <v>0.04607221959639127</v>
+      </c>
+      <c r="D14">
+        <v>0.01433715513629249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00213557885451912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005829516668340128</v>
+      </c>
+      <c r="C15">
+        <v>0.03941798941215024</v>
+      </c>
+      <c r="D15">
+        <v>0.03347208521946136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002084284384791538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004885849552397865</v>
+      </c>
+      <c r="C16">
+        <v>0.06486376067202745</v>
+      </c>
+      <c r="D16">
+        <v>0.04998931545714958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005062131510144619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008890631666578531</v>
+      </c>
+      <c r="C20">
+        <v>0.06481993494493594</v>
+      </c>
+      <c r="D20">
+        <v>0.05573914644642184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00568098740498073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009812842492460852</v>
+      </c>
+      <c r="C21">
+        <v>0.02316936260943552</v>
+      </c>
+      <c r="D21">
+        <v>0.03522659336186206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01672475128105999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006910868221685492</v>
+      </c>
+      <c r="C22">
+        <v>0.09297267461651886</v>
+      </c>
+      <c r="D22">
+        <v>0.1032782401673502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01706347624066431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006724404872216009</v>
+      </c>
+      <c r="C23">
+        <v>0.09382572948844493</v>
+      </c>
+      <c r="D23">
+        <v>0.1036123363353084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002904054666949812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004891301169401679</v>
+      </c>
+      <c r="C24">
+        <v>0.07334497992256168</v>
+      </c>
+      <c r="D24">
+        <v>0.06163774085130201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00472346490196402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002728039350773823</v>
+      </c>
+      <c r="C25">
+        <v>0.07746230490798814</v>
+      </c>
+      <c r="D25">
+        <v>0.06654168218930992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006514871577412726</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00357619817970037</v>
+      </c>
+      <c r="C26">
+        <v>0.04067158980840361</v>
+      </c>
+      <c r="D26">
+        <v>0.02914097795972733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.006689446006744584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0004017487973392546</v>
+      </c>
+      <c r="C28">
+        <v>0.1224166950356652</v>
+      </c>
+      <c r="D28">
+        <v>-0.310683486150487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002154712006862746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003205190201173448</v>
+      </c>
+      <c r="C29">
+        <v>0.04852679228192107</v>
+      </c>
+      <c r="D29">
+        <v>0.01382827278181013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.0047793466115605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008570244374869539</v>
+      </c>
+      <c r="C30">
+        <v>0.137831786476642</v>
+      </c>
+      <c r="D30">
+        <v>0.1079424370606668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003392517096540492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006105022376850259</v>
+      </c>
+      <c r="C31">
+        <v>0.04601815450350025</v>
+      </c>
+      <c r="D31">
+        <v>0.03102207542389693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.001475721486527793</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004056112168842677</v>
+      </c>
+      <c r="C32">
+        <v>0.04111377652883377</v>
+      </c>
+      <c r="D32">
+        <v>0.01685390454527938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003819785942081162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007794636403493584</v>
+      </c>
+      <c r="C33">
+        <v>0.08338991160936095</v>
+      </c>
+      <c r="D33">
+        <v>0.07541769172704131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004622353296869538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003820347086107779</v>
+      </c>
+      <c r="C34">
+        <v>0.05796122618650633</v>
+      </c>
+      <c r="D34">
+        <v>0.04740837859802626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002873467045127122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004743521319970929</v>
+      </c>
+      <c r="C35">
+        <v>0.03878314182270224</v>
+      </c>
+      <c r="D35">
+        <v>0.01389283859298816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004974371547380564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001385059000822681</v>
+      </c>
+      <c r="C36">
+        <v>0.02380925511378801</v>
+      </c>
+      <c r="D36">
+        <v>0.02301034139909863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001484444732228569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009216579393882674</v>
+      </c>
+      <c r="C38">
+        <v>0.03259221858264796</v>
+      </c>
+      <c r="D38">
+        <v>0.01992853948692309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01331464871463706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009968401466231766</v>
+      </c>
+      <c r="C39">
+        <v>0.1156081487368469</v>
+      </c>
+      <c r="D39">
+        <v>0.0847624494395985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008238058080938143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002117892915393121</v>
+      </c>
+      <c r="C40">
+        <v>0.08703987248063799</v>
+      </c>
+      <c r="D40">
+        <v>0.02100617877450472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008241395099730308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007359161115268744</v>
+      </c>
+      <c r="C41">
+        <v>0.03926839173336102</v>
+      </c>
+      <c r="D41">
+        <v>0.03463224236808502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003487157726059482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003543820764018079</v>
+      </c>
+      <c r="C43">
+        <v>0.05073831915028435</v>
+      </c>
+      <c r="D43">
+        <v>0.02551439239840695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002612296396146979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003415198141518486</v>
+      </c>
+      <c r="C44">
+        <v>0.1085244966935578</v>
+      </c>
+      <c r="D44">
+        <v>0.08494842350806005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002578390363789595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002266623244446049</v>
+      </c>
+      <c r="C46">
+        <v>0.03462158374800423</v>
+      </c>
+      <c r="D46">
+        <v>0.03092209535644825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0007323729814446033</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002612323088137077</v>
+      </c>
+      <c r="C47">
+        <v>0.03859006811329305</v>
+      </c>
+      <c r="D47">
+        <v>0.0233327777617973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003718424077834594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006347901715944519</v>
+      </c>
+      <c r="C48">
+        <v>0.02843554192683022</v>
+      </c>
+      <c r="D48">
+        <v>0.03315967220941688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01206194519508293</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01426311650721528</v>
+      </c>
+      <c r="C49">
+        <v>0.1726562156440924</v>
+      </c>
+      <c r="D49">
+        <v>0.0279379134487613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001333157083758245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003584164066773741</v>
+      </c>
+      <c r="C50">
+        <v>0.04300161143445367</v>
+      </c>
+      <c r="D50">
+        <v>0.03567725916091591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001767819144345348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004259646533588457</v>
+      </c>
+      <c r="C51">
+        <v>0.02082399651428812</v>
+      </c>
+      <c r="D51">
+        <v>0.0326385083832379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.000284298625299587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02007649701146647</v>
+      </c>
+      <c r="C53">
+        <v>0.1659993936876909</v>
+      </c>
+      <c r="D53">
+        <v>0.04724813763564802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0002620380884612434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00858533044447506</v>
+      </c>
+      <c r="C54">
+        <v>0.05532993685922812</v>
+      </c>
+      <c r="D54">
+        <v>0.04254143412574224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004243161984818528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009138066205525876</v>
+      </c>
+      <c r="C55">
+        <v>0.1062658983394879</v>
+      </c>
+      <c r="D55">
+        <v>0.05230109719097252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002388961584469666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0193949250124903</v>
+      </c>
+      <c r="C56">
+        <v>0.1726052556485628</v>
+      </c>
+      <c r="D56">
+        <v>0.04491682073677759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008579594501033421</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01924357491776351</v>
+      </c>
+      <c r="C58">
+        <v>0.1034628135404607</v>
+      </c>
+      <c r="D58">
+        <v>0.06961413175570426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008419213986822046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009532896381601201</v>
+      </c>
+      <c r="C59">
+        <v>0.1671418957484558</v>
+      </c>
+      <c r="D59">
+        <v>-0.2852425014526013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005775968382663122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02325316789905251</v>
+      </c>
+      <c r="C60">
+        <v>0.2215562910288613</v>
+      </c>
+      <c r="D60">
+        <v>0.0287390299607434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01448314913645548</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002067424664831518</v>
+      </c>
+      <c r="C61">
+        <v>0.0948534175646418</v>
+      </c>
+      <c r="D61">
+        <v>0.06237025954985279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1770153752975204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1435817052668588</v>
+      </c>
+      <c r="C62">
+        <v>0.0796430201062025</v>
+      </c>
+      <c r="D62">
+        <v>0.05587936201558499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001763135151811966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006350742760378779</v>
+      </c>
+      <c r="C63">
+        <v>0.05978158014539822</v>
+      </c>
+      <c r="D63">
+        <v>0.02472373638136305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005822639314729466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01472930363484609</v>
+      </c>
+      <c r="C64">
+        <v>0.1025331576281062</v>
+      </c>
+      <c r="D64">
+        <v>0.06524849311981677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001139399409799289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01699895727388624</v>
+      </c>
+      <c r="C65">
+        <v>0.1151944439067966</v>
+      </c>
+      <c r="D65">
+        <v>0.02461246563840089</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008628274416589761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01218380779129531</v>
+      </c>
+      <c r="C66">
+        <v>0.1546339856918807</v>
+      </c>
+      <c r="D66">
+        <v>0.121666132549636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00273633297719357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01532024374823544</v>
+      </c>
+      <c r="C67">
+        <v>0.06272494006587187</v>
+      </c>
+      <c r="D67">
+        <v>0.03058767565963453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008884510592219053</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001134163889141332</v>
+      </c>
+      <c r="C68">
+        <v>0.1033819602112698</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594340472501706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002957070038033537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00580693592550999</v>
+      </c>
+      <c r="C69">
+        <v>0.04838008770322237</v>
+      </c>
+      <c r="D69">
+        <v>0.04330055027013175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001725668952517411</v>
+      </c>
+      <c r="C70">
+        <v>0.002145260623604186</v>
+      </c>
+      <c r="D70">
+        <v>0.002281957007290171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004817507938959248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006147584474757974</v>
+      </c>
+      <c r="C71">
+        <v>0.1074531405614504</v>
+      </c>
+      <c r="D71">
+        <v>-0.2852261968021333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.007582830995659407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01539234994707991</v>
+      </c>
+      <c r="C72">
+        <v>0.1490838341234697</v>
+      </c>
+      <c r="D72">
+        <v>0.02075594824582789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01098033851646477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02933280777005483</v>
+      </c>
+      <c r="C73">
+        <v>0.2812830792056593</v>
+      </c>
+      <c r="D73">
+        <v>0.04549924750006395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004412859471129511</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001263843165384573</v>
+      </c>
+      <c r="C74">
+        <v>0.103970055410478</v>
+      </c>
+      <c r="D74">
+        <v>0.04444232125958577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.00553908605879526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01060747307194246</v>
+      </c>
+      <c r="C75">
+        <v>0.132258684148555</v>
+      </c>
+      <c r="D75">
+        <v>0.02621214805327546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01134021826990406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02100306686468288</v>
+      </c>
+      <c r="C76">
+        <v>0.1476778076780713</v>
+      </c>
+      <c r="D76">
+        <v>0.0706348755858331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00226145540258034</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02411172051524773</v>
+      </c>
+      <c r="C77">
+        <v>0.1352831456351259</v>
+      </c>
+      <c r="D77">
+        <v>0.06493779780931316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008993153710681206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01413198549407125</v>
+      </c>
+      <c r="C78">
+        <v>0.09253655176529557</v>
+      </c>
+      <c r="D78">
+        <v>0.06740649031018554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02624577375927408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03669576524093701</v>
+      </c>
+      <c r="C79">
+        <v>0.1571584055208351</v>
+      </c>
+      <c r="D79">
+        <v>0.03183596540178799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004496682414264585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01027816840744191</v>
+      </c>
+      <c r="C80">
+        <v>0.04093939067537709</v>
+      </c>
+      <c r="D80">
+        <v>0.0334959672801106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.002013142035867865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01436318212139501</v>
+      </c>
+      <c r="C81">
+        <v>0.123412731624664</v>
+      </c>
+      <c r="D81">
+        <v>0.05685859927753619</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005584360000710593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01936597333002015</v>
+      </c>
+      <c r="C82">
+        <v>0.1418225224254761</v>
+      </c>
+      <c r="D82">
+        <v>0.04555151317578024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009680405408864248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009890179861127023</v>
+      </c>
+      <c r="C83">
+        <v>0.05656779569747672</v>
+      </c>
+      <c r="D83">
+        <v>0.04841504105518364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01304639762384705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01155154924609321</v>
+      </c>
+      <c r="C84">
+        <v>0.0318982347200258</v>
+      </c>
+      <c r="D84">
+        <v>-0.002797102094329948</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01504900388774578</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776007392512127</v>
+      </c>
+      <c r="C85">
+        <v>0.1283917078329393</v>
+      </c>
+      <c r="D85">
+        <v>0.04939485566473359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003083764851081442</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005418536975339124</v>
+      </c>
+      <c r="C86">
+        <v>0.05044679370441287</v>
+      </c>
+      <c r="D86">
+        <v>0.0205975981642959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007689933604083904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01008038249234958</v>
+      </c>
+      <c r="C87">
+        <v>0.1295674131818038</v>
+      </c>
+      <c r="D87">
+        <v>0.07707323037776835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01576913108556523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002857522753085582</v>
+      </c>
+      <c r="C88">
+        <v>0.06899084286698001</v>
+      </c>
+      <c r="D88">
+        <v>0.01469222959404084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01753228116412274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.0009172731402647701</v>
+      </c>
+      <c r="C89">
+        <v>0.1580343610555919</v>
+      </c>
+      <c r="D89">
+        <v>-0.3378072112571407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.006413283695279571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007452230812513986</v>
+      </c>
+      <c r="C90">
+        <v>0.1380720268403151</v>
+      </c>
+      <c r="D90">
+        <v>-0.3218437969949841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0004775673088021546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01009441871484288</v>
+      </c>
+      <c r="C91">
+        <v>0.1050443308353512</v>
+      </c>
+      <c r="D91">
+        <v>0.02022175434618843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01428133970366697</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0007584659775046411</v>
+      </c>
+      <c r="C92">
+        <v>0.1472030286881371</v>
+      </c>
+      <c r="D92">
+        <v>-0.3300610662220256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.003420501208655544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005378514667786222</v>
+      </c>
+      <c r="C93">
+        <v>0.1216640258789108</v>
+      </c>
+      <c r="D93">
+        <v>-0.3148233731876577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004028683415848852</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02202048662060102</v>
+      </c>
+      <c r="C94">
+        <v>0.15572673029829</v>
+      </c>
+      <c r="D94">
+        <v>0.03333132708457393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006540792282157246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01596729891529263</v>
+      </c>
+      <c r="C95">
+        <v>0.1241407331840623</v>
+      </c>
+      <c r="D95">
+        <v>0.06548709040704453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00446825393426264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03439486432382548</v>
+      </c>
+      <c r="C97">
+        <v>0.1798148398556829</v>
+      </c>
+      <c r="D97">
+        <v>0.03956629311585431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.006466716679132607</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03626122956424534</v>
+      </c>
+      <c r="C98">
+        <v>0.2528953456568901</v>
+      </c>
+      <c r="D98">
+        <v>0.04741129679101217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9818701467898605</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827997923957551</v>
+      </c>
+      <c r="C99">
+        <v>-0.1098956609440361</v>
+      </c>
+      <c r="D99">
+        <v>-0.03090030509629399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002109051922425127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003248083829407152</v>
+      </c>
+      <c r="C101">
+        <v>0.04855053734236529</v>
+      </c>
+      <c r="D101">
+        <v>0.01423865716417124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
